--- a/Minecraft-Computer-Operations.xlsx
+++ b/Minecraft-Computer-Operations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiha\OneDrive\Documents\GitHub\Binari-n-Rhesymegol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFDB1E4-4807-439D-B8D6-45A0444C994D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC4B333-99C7-4D86-8184-B67D577C84D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="16220" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
   </bookViews>
   <sheets>
     <sheet name="Operation Mapping" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,6 @@
     <t>READH</t>
   </si>
   <si>
-    <t>WRITEL</t>
-  </si>
-  <si>
-    <t>WRITEH</t>
-  </si>
-  <si>
     <t>PLOT</t>
   </si>
   <si>
@@ -128,18 +122,9 @@
     <t>Stop</t>
   </si>
   <si>
-    <t>SEGMENT</t>
-  </si>
-  <si>
     <t>CONSIDERATION</t>
   </si>
   <si>
-    <t>LOGIC-ALU</t>
-  </si>
-  <si>
-    <t>MATH-ALU</t>
-  </si>
-  <si>
     <t>LOW</t>
   </si>
   <si>
@@ -188,33 +173,15 @@
     <t>Jump Condition</t>
   </si>
   <si>
-    <t>CLS-ALL</t>
-  </si>
-  <si>
-    <t>CLS-PLOT</t>
-  </si>
-  <si>
-    <t>CLS-OUTPUT</t>
-  </si>
-  <si>
     <t>SCR-ALL</t>
   </si>
   <si>
-    <t>READ-PROG</t>
-  </si>
-  <si>
-    <t>WRITE-PROG</t>
-  </si>
-  <si>
     <t>Read Program Buttons</t>
   </si>
   <si>
     <t>Write Program Buttons</t>
   </si>
   <si>
-    <t>CLS-A</t>
-  </si>
-  <si>
     <t>IF</t>
   </si>
   <si>
@@ -230,9 +197,6 @@
     <t>Jump Address From Data</t>
   </si>
   <si>
-    <t>CLS-B</t>
-  </si>
-  <si>
     <t>ALU/IF A</t>
   </si>
   <si>
@@ -249,6 +213,42 @@
   </si>
   <si>
     <t>0: REPEATER</t>
+  </si>
+  <si>
+    <t>WRITL</t>
+  </si>
+  <si>
+    <t>WRITH</t>
+  </si>
+  <si>
+    <t>LOGIC</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>READP</t>
+  </si>
+  <si>
+    <t>WRITP</t>
+  </si>
+  <si>
+    <t>SEG</t>
+  </si>
+  <si>
+    <t>CLSA</t>
+  </si>
+  <si>
+    <t>CLSB</t>
+  </si>
+  <si>
+    <t>CLSO</t>
+  </si>
+  <si>
+    <t>CLSP</t>
+  </si>
+  <si>
+    <t>CLSAL</t>
   </si>
 </sst>
 </file>
@@ -344,10 +344,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,13 +695,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4783DD8-DB99-4203-8706-5C5B54F85F4F}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:I33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -710,12 +710,12 @@
         <v>0</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -748,7 +748,7 @@
         <v>111</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -756,7 +756,7 @@
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>0</v>
       </c>
@@ -766,12 +766,12 @@
         <v>00000</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -789,7 +789,7 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -799,12 +799,12 @@
         <v>00001</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -816,7 +816,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
@@ -824,7 +824,7 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -834,12 +834,12 @@
         <v>00010</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -851,7 +851,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
@@ -859,7 +859,7 @@
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -869,12 +869,12 @@
         <v>00011</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="E5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -886,7 +886,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -894,7 +894,7 @@
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -904,12 +904,12 @@
         <v>00100</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="6"/>
+      <c r="E6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -921,7 +921,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
@@ -929,7 +929,7 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -939,12 +939,12 @@
         <v>00101</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="6"/>
+      <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -962,7 +962,7 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -972,12 +972,12 @@
         <v>00110</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -995,7 +995,7 @@
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -1005,35 +1005,35 @@
         <v>00111</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="E9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -1042,7 +1042,7 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1052,29 +1052,29 @@
         <v>01000</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="E10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1085,7 +1085,7 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -1095,12 +1095,12 @@
         <v>01001</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6"/>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1122,7 +1122,7 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -1132,20 +1132,20 @@
         <v>01010</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="6"/>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1153,7 +1153,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -1161,7 +1161,7 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -1171,12 +1171,12 @@
         <v>01011</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="E13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1194,7 +1194,7 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -1204,26 +1204,26 @@
         <v>01100</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="6"/>
+      <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1235,7 +1235,7 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -1245,12 +1245,12 @@
         <v>01101</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="6"/>
+      <c r="E15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1268,7 +1268,7 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -1278,12 +1278,12 @@
         <v>01110</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="6"/>
+      <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1301,7 +1301,7 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -1311,12 +1311,12 @@
         <v>01111</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="6"/>
+      <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1348,7 +1348,7 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1358,23 +1358,23 @@
         <v>10000</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="6"/>
+      <c r="E18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M18" s="2">
         <v>8</v>
@@ -1391,7 +1391,7 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -1401,12 +1401,12 @@
         <v>10001</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="6"/>
+      <c r="E19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1424,7 +1424,7 @@
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1434,8 +1434,8 @@
         <v>10010</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1453,7 +1453,7 @@
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1463,8 +1463,8 @@
         <v>10011</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1482,7 +1482,7 @@
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -1533,14 +1533,14 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -1569,7 +1569,7 @@
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>23</v>
       </c>
@@ -1579,8 +1579,8 @@
         <v>10111</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1598,7 +1598,7 @@
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>24</v>
       </c>
@@ -1608,8 +1608,8 @@
         <v>11000</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -1627,7 +1627,7 @@
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>25</v>
       </c>
@@ -1637,8 +1637,8 @@
         <v>11001</v>
       </c>
       <c r="D27" s="8"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -1656,7 +1656,7 @@
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>26</v>
       </c>
@@ -1666,8 +1666,8 @@
         <v>11010</v>
       </c>
       <c r="D28" s="8"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -1685,7 +1685,7 @@
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -1695,12 +1695,12 @@
         <v>11011</v>
       </c>
       <c r="D29" s="8"/>
-      <c r="E29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="6"/>
+      <c r="E29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -1718,7 +1718,7 @@
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>28</v>
       </c>
@@ -1728,12 +1728,12 @@
         <v>11100</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="6"/>
+      <c r="E30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -1745,7 +1745,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
@@ -1753,7 +1753,7 @@
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>29</v>
       </c>
@@ -1763,32 +1763,32 @@
         <v>11101</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="6"/>
+      <c r="E31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -1796,7 +1796,7 @@
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>30</v>
       </c>
@@ -1806,12 +1806,12 @@
         <v>11110</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="6"/>
+      <c r="E32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="7"/>
       <c r="G32" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1829,7 +1829,7 @@
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>31</v>
       </c>
@@ -1839,12 +1839,12 @@
         <v>11111</v>
       </c>
       <c r="D33" s="8"/>
-      <c r="E33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="6"/>
+      <c r="E33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -1873,6 +1873,14 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -1883,20 +1891,7 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -1906,7 +1901,6 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="E16:F16"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E31:F31"/>
@@ -1916,6 +1910,21 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
@@ -1925,11 +1934,6 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
@@ -1945,9 +1949,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -2005,7 +2006,6 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="J33:P33"/>
     <mergeCell ref="G7:I7"/>

--- a/Minecraft-Computer-Operations.xlsx
+++ b/Minecraft-Computer-Operations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiha\OneDrive\Documents\GitHub\Binari-n-Rhesymegol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\Documents\Github\Token-Assembler-Binari-n-Rhesymegol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC4B333-99C7-4D86-8184-B67D577C84D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077B2029-433D-49AC-8A6E-AFCE848FC54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="16220" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
   </bookViews>
   <sheets>
     <sheet name="Operation Mapping" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>OP CODE</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Drive A</t>
   </si>
   <si>
-    <t>Stop</t>
-  </si>
-  <si>
     <t>CONSIDERATION</t>
   </si>
   <si>
@@ -249,6 +246,15 @@
   </si>
   <si>
     <t>CLSAL</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>STOP</t>
   </si>
 </sst>
 </file>
@@ -335,25 +341,25 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,30 +701,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4783DD8-DB99-4203-8706-5C5B54F85F4F}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:F33"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="2" t="str">
         <f>DEC2BIN(A3,3)</f>
         <v>001</v>
@@ -747,34 +753,34 @@
         <f>DEC2BIN(A9,3)</f>
         <v>111</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="Q1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="8" t="str">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="str">
         <f>DEC2BIN(A2,5)</f>
         <v>00000</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -782,32 +788,32 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8" t="str">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C33" si="0">DEC2BIN(A3,5)</f>
         <v>00001</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -815,34 +821,34 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="Q3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8" t="str">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00010</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -850,34 +856,34 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="Q4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8" t="str">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="str">
         <f>DEC2BIN(A5,5)</f>
         <v>00011</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -885,34 +891,34 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="Q5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="str">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00100</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -920,100 +926,100 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="Q6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="str">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00101</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00110</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>00110</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="str">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00111</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1035,32 +1041,32 @@
       <c r="P9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="str">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01000</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1071,39 +1077,39 @@
         <v>12</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8" t="str">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01001</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="2">
         <v>1</v>
       </c>
@@ -1115,71 +1121,71 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8" t="str">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01010</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="Q12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8" t="str">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01011</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1187,73 +1193,73 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8" t="str">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01100</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8" t="str">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01101</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1261,32 +1267,32 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8" t="str">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01110</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1294,32 +1300,32 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8" t="str">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01111</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="2">
         <v>1</v>
       </c>
@@ -1341,40 +1347,40 @@
       <c r="P17" s="2">
         <v>7</v>
       </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8" t="str">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="M18" s="2">
         <v>8</v>
@@ -1384,32 +1390,32 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8" t="str">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10001</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1417,28 +1423,28 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8" t="str">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10010</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1446,28 +1452,28 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8" t="str">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10011</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1475,28 +1481,28 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8" t="str">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10100</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1504,28 +1510,28 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8" t="str">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10101</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1533,28 +1539,28 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8" t="str">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10110</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1562,28 +1568,28 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8" t="str">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10111</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1591,28 +1597,28 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="8" t="str">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1620,28 +1626,28 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8" t="str">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11001</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1649,28 +1655,32 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="8" t="str">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11010</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1678,32 +1688,32 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="8" t="str">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11011</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1711,32 +1721,32 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8" t="str">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11100</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1744,163 +1754,231 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="Q30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8" t="str">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11101</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="M31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="Q31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="8" t="str">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11110</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>11111</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>31</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>11111</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="166">
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="Q31:V31"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E31:F31"/>
@@ -1925,111 +2003,43 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="Q30:V30"/>
-    <mergeCell ref="Q31:V31"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="Q33:V33"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Minecraft-Computer-Operations.xlsx
+++ b/Minecraft-Computer-Operations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\Documents\Github\Token-Assembler-Binari-n-Rhesymegol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiha\OneDrive\Documents\GitHub\Binari-n-Rhesymegol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077B2029-433D-49AC-8A6E-AFCE848FC54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54064E02-65EA-4C2E-9DA7-535D3111757E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="16220" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
   </bookViews>
   <sheets>
     <sheet name="Operation Mapping" sheetId="1" r:id="rId1"/>
@@ -341,25 +341,25 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,30 +701,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4783DD8-DB99-4203-8706-5C5B54F85F4F}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:I27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="113" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="2" t="str">
         <f>DEC2BIN(A3,3)</f>
         <v>001</v>
@@ -753,34 +753,34 @@
         <f>DEC2BIN(A9,3)</f>
         <v>111</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="str">
+      <c r="B2" s="9"/>
+      <c r="C2" s="8" t="str">
         <f>DEC2BIN(A2,5)</f>
         <v>00000</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -788,32 +788,32 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="str">
+      <c r="B3" s="9"/>
+      <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C33" si="0">DEC2BIN(A3,5)</f>
         <v>00001</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -821,34 +821,34 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="str">
+      <c r="B4" s="9"/>
+      <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00010</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -856,34 +856,34 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="str">
+      <c r="B5" s="9"/>
+      <c r="C5" s="8" t="str">
         <f>DEC2BIN(A5,5)</f>
         <v>00011</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -891,34 +891,34 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="str">
+      <c r="B6" s="9"/>
+      <c r="C6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00100</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -926,100 +926,100 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="str">
+      <c r="B7" s="9"/>
+      <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00101</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="str">
+      <c r="B8" s="9"/>
+      <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00110</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="str">
+      <c r="B9" s="9"/>
+      <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00111</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1041,32 +1041,32 @@
       <c r="P9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="str">
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01000</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="str">
+      <c r="B11" s="9"/>
+      <c r="C11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01001</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="2">
         <v>1</v>
       </c>
@@ -1121,32 +1121,32 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="str">
+      <c r="B12" s="9"/>
+      <c r="C12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01010</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="2" t="s">
         <v>28</v>
       </c>
@@ -1158,34 +1158,34 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6" t="str">
+      <c r="B13" s="9"/>
+      <c r="C13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01011</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1193,32 +1193,32 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="str">
+      <c r="B14" s="9"/>
+      <c r="C14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01100</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1234,32 +1234,32 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="str">
+      <c r="B15" s="9"/>
+      <c r="C15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01101</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1267,32 +1267,32 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="str">
+      <c r="B16" s="9"/>
+      <c r="C16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01110</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1300,32 +1300,32 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="str">
+      <c r="B17" s="9"/>
+      <c r="C17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01111</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="2">
         <v>1</v>
       </c>
@@ -1347,32 +1347,32 @@
       <c r="P17" s="2">
         <v>7</v>
       </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="str">
+      <c r="B18" s="9"/>
+      <c r="C18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1390,32 +1390,32 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6" t="str">
+      <c r="B19" s="9"/>
+      <c r="C19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10001</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1423,28 +1423,28 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6" t="str">
+      <c r="B20" s="9"/>
+      <c r="C20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10010</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1452,28 +1452,28 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6" t="str">
+      <c r="B21" s="9"/>
+      <c r="C21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10011</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1481,28 +1481,28 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="str">
+      <c r="B22" s="9"/>
+      <c r="C22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10100</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1510,28 +1510,28 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6" t="str">
+      <c r="B23" s="9"/>
+      <c r="C23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10101</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1539,28 +1539,28 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6" t="str">
+      <c r="B24" s="9"/>
+      <c r="C24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10110</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1568,28 +1568,28 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6" t="str">
+      <c r="B25" s="9"/>
+      <c r="C25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10111</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1597,28 +1597,28 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6" t="str">
+      <c r="B26" s="9"/>
+      <c r="C26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1626,28 +1626,28 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6" t="str">
+      <c r="B27" s="9"/>
+      <c r="C27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11001</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1655,32 +1655,32 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6" t="str">
+      <c r="B28" s="9"/>
+      <c r="C28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11010</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1688,32 +1688,32 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6" t="str">
+      <c r="B29" s="9"/>
+      <c r="C29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11011</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1721,32 +1721,32 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6" t="str">
+      <c r="B30" s="9"/>
+      <c r="C30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11100</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1754,34 +1754,34 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="7" t="s">
+      <c r="Q30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6" t="str">
+      <c r="B31" s="9"/>
+      <c r="C31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11101</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1797,83 +1797,225 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="7" t="s">
+      <c r="Q31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6" t="str">
+      <c r="B32" s="9"/>
+      <c r="C32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11110</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="8"/>
+      <c r="E32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6" t="str">
+      <c r="B33" s="9"/>
+      <c r="C33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11111</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="166">
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="J33:P33"/>
     <mergeCell ref="G7:I7"/>
@@ -1898,148 +2040,6 @@
     <mergeCell ref="Q28:V28"/>
     <mergeCell ref="Q12:V12"/>
     <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Minecraft-Computer-Operations.xlsx
+++ b/Minecraft-Computer-Operations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiha\OneDrive\Documents\GitHub\Binari-n-Rhesymegol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54064E02-65EA-4C2E-9DA7-535D3111757E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EB6269-E77F-4BEE-8473-3775CABD3B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>OP CODE</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>STOP</t>
+  </si>
+  <si>
+    <t>0,1</t>
   </si>
 </sst>
 </file>
@@ -341,25 +344,25 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,30 +704,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4783DD8-DB99-4203-8706-5C5B54F85F4F}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:I33"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="2" t="str">
         <f>DEC2BIN(A3,3)</f>
         <v>001</v>
@@ -753,34 +756,34 @@
         <f>DEC2BIN(A9,3)</f>
         <v>111</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="8" t="str">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="str">
         <f>DEC2BIN(A2,5)</f>
         <v>00000</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -788,32 +791,32 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8" t="str">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C33" si="0">DEC2BIN(A3,5)</f>
         <v>00001</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -821,34 +824,34 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8" t="str">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00010</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -856,34 +859,34 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8" t="str">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="str">
         <f>DEC2BIN(A5,5)</f>
         <v>00011</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -891,34 +894,34 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="str">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00100</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -926,100 +929,100 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="str">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00101</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8" t="str">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00110</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="str">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00111</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1041,32 +1044,32 @@
       <c r="P9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="str">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01000</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1084,69 +1087,79 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8" t="str">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01001</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="2">
-        <v>1</v>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="K11" s="2">
         <v>2</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>4</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5</v>
+      </c>
+      <c r="O11" s="2">
+        <v>6</v>
+      </c>
+      <c r="P11" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8" t="str">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01010</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="2" t="s">
         <v>28</v>
       </c>
@@ -1158,34 +1171,34 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8" t="str">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01011</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1193,32 +1206,32 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8" t="str">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01100</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1234,32 +1247,32 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8" t="str">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01101</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1267,32 +1280,32 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8" t="str">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01110</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1300,32 +1313,32 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8" t="str">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01111</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="2">
         <v>1</v>
       </c>
@@ -1347,32 +1360,32 @@
       <c r="P17" s="2">
         <v>7</v>
       </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8" t="str">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1390,32 +1403,32 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8" t="str">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10001</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1423,28 +1436,28 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8" t="str">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10010</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1452,28 +1465,28 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8" t="str">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10011</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1481,28 +1494,28 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8" t="str">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10100</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1510,28 +1523,28 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8" t="str">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10101</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1539,28 +1552,28 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8" t="str">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10110</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1568,28 +1581,28 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8" t="str">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10111</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1597,28 +1610,28 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="8" t="str">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1626,28 +1639,28 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8" t="str">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11001</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1655,32 +1668,32 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="8" t="str">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11010</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="4" t="s">
+      <c r="F28" s="4"/>
+      <c r="G28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1688,32 +1701,32 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="8" t="str">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11011</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="4" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1721,32 +1734,32 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8" t="str">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11100</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="4"/>
+      <c r="G30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1754,34 +1767,34 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8" t="str">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11101</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="4" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1797,120 +1810,188 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="8" t="str">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11110</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="4" t="s">
+      <c r="F32" s="4"/>
+      <c r="G32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8" t="str">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11111</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="4" t="s">
+      <c r="F33" s="4"/>
+      <c r="G33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="166">
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="Q31:V31"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E31:F31"/>
@@ -1935,111 +2016,43 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="Q30:V30"/>
-    <mergeCell ref="Q31:V31"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="Q33:V33"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Minecraft-Computer-Operations.xlsx
+++ b/Minecraft-Computer-Operations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiha\OneDrive\Documents\GitHub\Binari-n-Rhesymegol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EB6269-E77F-4BEE-8473-3775CABD3B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78DF92D-1B1F-439A-B481-16E9309B60C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>OP CODE</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>0,1</t>
+  </si>
+  <si>
+    <t>SAVZ</t>
+  </si>
+  <si>
+    <t>FOR RAND</t>
+  </si>
+  <si>
+    <t>CLSZ</t>
+  </si>
+  <si>
+    <t>RAND/LOAD</t>
   </si>
 </sst>
 </file>
@@ -344,25 +356,25 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,29 +717,29 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G24" sqref="G24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="2" t="str">
         <f>DEC2BIN(A3,3)</f>
         <v>001</v>
@@ -756,34 +768,34 @@
         <f>DEC2BIN(A9,3)</f>
         <v>111</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="str">
+      <c r="B2" s="9"/>
+      <c r="C2" s="8" t="str">
         <f>DEC2BIN(A2,5)</f>
         <v>00000</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -791,32 +803,32 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="str">
+      <c r="B3" s="9"/>
+      <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C33" si="0">DEC2BIN(A3,5)</f>
         <v>00001</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -824,34 +836,34 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="str">
+      <c r="B4" s="9"/>
+      <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00010</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -859,34 +871,34 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="str">
+      <c r="B5" s="9"/>
+      <c r="C5" s="8" t="str">
         <f>DEC2BIN(A5,5)</f>
         <v>00011</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -894,34 +906,34 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="str">
+      <c r="B6" s="9"/>
+      <c r="C6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00100</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -929,100 +941,100 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="str">
+      <c r="B7" s="9"/>
+      <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00101</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="str">
+      <c r="B8" s="9"/>
+      <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00110</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="str">
+      <c r="B9" s="9"/>
+      <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00111</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1044,32 +1056,32 @@
       <c r="P9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="str">
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01000</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1087,32 +1099,32 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="str">
+      <c r="B11" s="9"/>
+      <c r="C11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01001</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="2" t="s">
         <v>73</v>
       </c>
@@ -1134,32 +1146,32 @@
       <c r="P11" s="2">
         <v>7</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="str">
+      <c r="B12" s="9"/>
+      <c r="C12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01010</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="2" t="s">
         <v>28</v>
       </c>
@@ -1171,34 +1183,34 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6" t="str">
+      <c r="B13" s="9"/>
+      <c r="C13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01011</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1206,32 +1218,32 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="str">
+      <c r="B14" s="9"/>
+      <c r="C14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01100</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1247,32 +1259,32 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="str">
+      <c r="B15" s="9"/>
+      <c r="C15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01101</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1280,32 +1292,32 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="str">
+      <c r="B16" s="9"/>
+      <c r="C16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01110</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1313,32 +1325,32 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="str">
+      <c r="B17" s="9"/>
+      <c r="C17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01111</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="2">
         <v>1</v>
       </c>
@@ -1360,32 +1372,32 @@
       <c r="P17" s="2">
         <v>7</v>
       </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="str">
+      <c r="B18" s="9"/>
+      <c r="C18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1403,32 +1415,32 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6" t="str">
+      <c r="B19" s="9"/>
+      <c r="C19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10001</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1436,28 +1448,32 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6" t="str">
+      <c r="B20" s="9"/>
+      <c r="C20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10010</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1465,28 +1481,28 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6" t="str">
+      <c r="B21" s="9"/>
+      <c r="C21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10011</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1494,28 +1510,28 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="str">
+      <c r="B22" s="9"/>
+      <c r="C22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10100</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1523,28 +1539,28 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6" t="str">
+      <c r="B23" s="9"/>
+      <c r="C23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10101</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1552,28 +1568,28 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6" t="str">
+      <c r="B24" s="9"/>
+      <c r="C24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10110</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1581,28 +1597,28 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6" t="str">
+      <c r="B25" s="9"/>
+      <c r="C25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10111</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1610,28 +1626,28 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6" t="str">
+      <c r="B26" s="9"/>
+      <c r="C26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1639,28 +1655,32 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6" t="str">
+      <c r="B27" s="9"/>
+      <c r="C27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11001</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1668,32 +1688,32 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6" t="str">
+      <c r="B28" s="9"/>
+      <c r="C28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11010</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="7"/>
+      <c r="G28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1701,32 +1721,32 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6" t="str">
+      <c r="B29" s="9"/>
+      <c r="C29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11011</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1734,32 +1754,32 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6" t="str">
+      <c r="B30" s="9"/>
+      <c r="C30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11100</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1767,34 +1787,34 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="7" t="s">
+      <c r="Q30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6" t="str">
+      <c r="B31" s="9"/>
+      <c r="C31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11101</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1810,83 +1830,225 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="7" t="s">
+      <c r="Q31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6" t="str">
+      <c r="B32" s="9"/>
+      <c r="C32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11110</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="8"/>
+      <c r="E32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6" t="str">
+      <c r="B33" s="9"/>
+      <c r="C33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11111</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="8"/>
+      <c r="E33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3" t="s">
+      <c r="F33" s="7"/>
+      <c r="G33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="166">
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="J33:P33"/>
     <mergeCell ref="G7:I7"/>
@@ -1911,148 +2073,6 @@
     <mergeCell ref="Q28:V28"/>
     <mergeCell ref="Q12:V12"/>
     <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Minecraft-Computer-Operations.xlsx
+++ b/Minecraft-Computer-Operations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiha\OneDrive\Documents\GitHub\Binari-n-Rhesymegol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78DF92D-1B1F-439A-B481-16E9309B60C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6C944B-BB0A-4B45-8FE9-167F5E74235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
   </bookViews>
   <sheets>
     <sheet name="Operation Mapping" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <t>OP CODE</t>
   </si>
@@ -270,6 +270,15 @@
   </si>
   <si>
     <t>RAND/LOAD</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>MORE MEMS</t>
   </si>
 </sst>
 </file>
@@ -356,25 +365,25 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,29 +726,29 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:I24"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="2" t="str">
         <f>DEC2BIN(A3,3)</f>
         <v>001</v>
@@ -768,34 +777,34 @@
         <f>DEC2BIN(A9,3)</f>
         <v>111</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="8" t="str">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="str">
         <f>DEC2BIN(A2,5)</f>
         <v>00000</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -803,32 +812,32 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8" t="str">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C33" si="0">DEC2BIN(A3,5)</f>
         <v>00001</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -836,34 +845,34 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8" t="str">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00010</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -871,34 +880,34 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8" t="str">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="str">
         <f>DEC2BIN(A5,5)</f>
         <v>00011</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -906,34 +915,34 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="str">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00100</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -941,100 +950,100 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="str">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00101</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8" t="str">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00110</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="str">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00111</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1056,32 +1065,32 @@
       <c r="P9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="str">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01000</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1099,32 +1108,32 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8" t="str">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01001</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="2" t="s">
         <v>73</v>
       </c>
@@ -1146,32 +1155,32 @@
       <c r="P11" s="2">
         <v>7</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8" t="str">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01010</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="2" t="s">
         <v>28</v>
       </c>
@@ -1183,34 +1192,34 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8" t="str">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01011</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1218,32 +1227,32 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8" t="str">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01100</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1259,32 +1268,32 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8" t="str">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01101</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1292,32 +1301,32 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8" t="str">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01110</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1325,32 +1334,32 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8" t="str">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01111</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="2">
         <v>1</v>
       </c>
@@ -1372,32 +1381,32 @@
       <c r="P17" s="2">
         <v>7</v>
       </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8" t="str">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1415,32 +1424,32 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8" t="str">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10001</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1448,32 +1457,32 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8" t="str">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10010</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1481,57 +1490,65 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8" t="str">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10011</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8" t="str">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10100</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1539,28 +1556,28 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8" t="str">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10101</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1568,28 +1585,28 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8" t="str">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10110</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1597,28 +1614,28 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8" t="str">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10111</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1626,28 +1643,28 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="8" t="str">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1655,32 +1672,32 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8" t="str">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11001</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="4" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1688,32 +1705,32 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="8" t="str">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11010</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="4" t="s">
+      <c r="F28" s="4"/>
+      <c r="G28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1721,32 +1738,32 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="8" t="str">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11011</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="4" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1754,32 +1771,32 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8" t="str">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11100</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="4"/>
+      <c r="G30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1787,34 +1804,34 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8" t="str">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11101</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="4" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1830,120 +1847,188 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="8" t="str">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11110</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="4" t="s">
+      <c r="F32" s="4"/>
+      <c r="G32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8" t="str">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11111</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="4" t="s">
+      <c r="F33" s="4"/>
+      <c r="G33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+  <mergeCells count="167">
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="Q31:V31"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E31:F31"/>
@@ -1968,111 +2053,44 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="Q30:V30"/>
-    <mergeCell ref="Q31:V31"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="Q33:V33"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Minecraft-Computer-Operations.xlsx
+++ b/Minecraft-Computer-Operations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiha\OneDrive\Documents\GitHub\Binari-n-Rhesymegol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6C944B-BB0A-4B45-8FE9-167F5E74235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4209312-DAF0-4BD0-8F1B-7BA6E12A8D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
   </bookViews>
   <sheets>
     <sheet name="Operation Mapping" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>OP CODE</t>
   </si>
@@ -279,6 +279,21 @@
   </si>
   <si>
     <t>MORE MEMS</t>
+  </si>
+  <si>
+    <t>CLSOU</t>
+  </si>
+  <si>
+    <t>CLEAR SPESH</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>USERIN</t>
+  </si>
+  <si>
+    <t>BŴTIN</t>
   </si>
 </sst>
 </file>
@@ -365,25 +380,25 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,30 +740,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4783DD8-DB99-4203-8706-5C5B54F85F4F}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="2" t="str">
         <f>DEC2BIN(A3,3)</f>
         <v>001</v>
@@ -777,34 +792,34 @@
         <f>DEC2BIN(A9,3)</f>
         <v>111</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="str">
+      <c r="B2" s="9"/>
+      <c r="C2" s="8" t="str">
         <f>DEC2BIN(A2,5)</f>
         <v>00000</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -812,32 +827,32 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="str">
+      <c r="B3" s="9"/>
+      <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C33" si="0">DEC2BIN(A3,5)</f>
         <v>00001</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -845,34 +860,34 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="str">
+      <c r="B4" s="9"/>
+      <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00010</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -880,34 +895,34 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="str">
+      <c r="B5" s="9"/>
+      <c r="C5" s="8" t="str">
         <f>DEC2BIN(A5,5)</f>
         <v>00011</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -915,34 +930,34 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="str">
+      <c r="B6" s="9"/>
+      <c r="C6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00100</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -950,100 +965,100 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="str">
+      <c r="B7" s="9"/>
+      <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00101</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="str">
+      <c r="B8" s="9"/>
+      <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00110</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="str">
+      <c r="B9" s="9"/>
+      <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00111</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1065,32 +1080,32 @@
       <c r="P9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="str">
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01000</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1108,32 +1123,32 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="str">
+      <c r="B11" s="9"/>
+      <c r="C11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01001</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="2" t="s">
         <v>73</v>
       </c>
@@ -1155,32 +1170,32 @@
       <c r="P11" s="2">
         <v>7</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="str">
+      <c r="B12" s="9"/>
+      <c r="C12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01010</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="2" t="s">
         <v>28</v>
       </c>
@@ -1192,34 +1207,34 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6" t="str">
+      <c r="B13" s="9"/>
+      <c r="C13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01011</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1227,32 +1242,32 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="str">
+      <c r="B14" s="9"/>
+      <c r="C14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01100</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1268,32 +1283,32 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="str">
+      <c r="B15" s="9"/>
+      <c r="C15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01101</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1301,32 +1316,32 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="str">
+      <c r="B16" s="9"/>
+      <c r="C16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01110</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1334,32 +1349,32 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="str">
+      <c r="B17" s="9"/>
+      <c r="C17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01111</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="2">
         <v>1</v>
       </c>
@@ -1381,32 +1396,32 @@
       <c r="P17" s="2">
         <v>7</v>
       </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="str">
+      <c r="B18" s="9"/>
+      <c r="C18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1424,32 +1439,32 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6" t="str">
+      <c r="B19" s="9"/>
+      <c r="C19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10001</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1457,32 +1472,32 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6" t="str">
+      <c r="B20" s="9"/>
+      <c r="C20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10010</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1490,32 +1505,32 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6" t="str">
+      <c r="B21" s="9"/>
+      <c r="C21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10011</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="7"/>
+      <c r="G21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="2" t="s">
         <v>79</v>
       </c>
@@ -1527,28 +1542,28 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="str">
+      <c r="B22" s="9"/>
+      <c r="C22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10100</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1556,28 +1571,28 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6" t="str">
+      <c r="B23" s="9"/>
+      <c r="C23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10101</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1585,28 +1600,28 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6" t="str">
+      <c r="B24" s="9"/>
+      <c r="C24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10110</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1614,28 +1629,28 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6" t="str">
+      <c r="B25" s="9"/>
+      <c r="C25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10111</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1643,61 +1658,71 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6" t="str">
+      <c r="B26" s="9"/>
+      <c r="C26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6" t="str">
+      <c r="B27" s="9"/>
+      <c r="C27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11001</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3" t="s">
+      <c r="F27" s="7"/>
+      <c r="G27" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1705,32 +1730,32 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6" t="str">
+      <c r="B28" s="9"/>
+      <c r="C28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11010</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="7"/>
+      <c r="G28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1738,32 +1763,32 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6" t="str">
+      <c r="B29" s="9"/>
+      <c r="C29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11011</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1771,32 +1796,32 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6" t="str">
+      <c r="B30" s="9"/>
+      <c r="C30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11100</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1804,34 +1829,34 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="7" t="s">
+      <c r="Q30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6" t="str">
+      <c r="B31" s="9"/>
+      <c r="C31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11101</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1847,83 +1872,226 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="7" t="s">
+      <c r="Q31" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6" t="str">
+      <c r="B32" s="9"/>
+      <c r="C32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11110</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="8"/>
+      <c r="E32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6" t="str">
+      <c r="B33" s="9"/>
+      <c r="C33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11111</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="8"/>
+      <c r="E33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3" t="s">
+      <c r="F33" s="7"/>
+      <c r="G33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="167">
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="J33:P33"/>
     <mergeCell ref="G7:I7"/>
@@ -1948,149 +2116,6 @@
     <mergeCell ref="Q28:V28"/>
     <mergeCell ref="Q12:V12"/>
     <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Minecraft-Computer-Operations.xlsx
+++ b/Minecraft-Computer-Operations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiha\OneDrive\Documents\GitHub\Binari-n-Rhesymegol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4209312-DAF0-4BD0-8F1B-7BA6E12A8D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C8C8F3-F367-4201-94D8-65E5C76AA797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="15600" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
   </bookViews>
   <sheets>
     <sheet name="Operation Mapping" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>OP CODE</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>BŴTIN</t>
+  </si>
+  <si>
+    <t>(!==)</t>
   </si>
 </sst>
 </file>
@@ -741,7 +744,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1283,9 @@
       <c r="M14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="5"/>

--- a/Minecraft-Computer-Operations.xlsx
+++ b/Minecraft-Computer-Operations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiha\OneDrive\Documents\GitHub\Binari-n-Rhesymegol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C8C8F3-F367-4201-94D8-65E5C76AA797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66152E7D-A744-4BD9-BC6F-560F751DC689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="15600" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
   </bookViews>
   <sheets>
     <sheet name="Operation Mapping" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
   <si>
     <t>OP CODE</t>
   </si>
@@ -122,12 +122,6 @@
     <t>CONSIDERATION</t>
   </si>
   <si>
-    <t>LOW</t>
-  </si>
-  <si>
-    <t>HIGH</t>
-  </si>
-  <si>
     <t>(==)</t>
   </si>
   <si>
@@ -297,6 +291,18 @@
   </si>
   <si>
     <t>(!==)</t>
+  </si>
+  <si>
+    <t>LOWLOW</t>
+  </si>
+  <si>
+    <t>LOW-H</t>
+  </si>
+  <si>
+    <t>HIGH-LO</t>
+  </si>
+  <si>
+    <t>H-H</t>
   </si>
 </sst>
 </file>
@@ -383,25 +389,25 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,29 +750,29 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:F12"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="2" t="str">
         <f>DEC2BIN(A3,3)</f>
         <v>001</v>
@@ -795,34 +801,34 @@
         <f>DEC2BIN(A9,3)</f>
         <v>111</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="8" t="str">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="str">
         <f>DEC2BIN(A2,5)</f>
         <v>00000</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -830,32 +836,32 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8" t="str">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C33" si="0">DEC2BIN(A3,5)</f>
         <v>00001</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -863,34 +869,34 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
+      <c r="Q3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8" t="str">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00010</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -898,34 +904,34 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="Q4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8" t="str">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="str">
         <f>DEC2BIN(A5,5)</f>
         <v>00011</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -933,34 +939,34 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
+      <c r="Q5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="str">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00100</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -968,100 +974,100 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00101</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00110</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>00111</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>00101</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>00110</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>00111</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1083,32 +1089,32 @@
       <c r="P9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="str">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01000</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1119,41 +1125,41 @@
         <v>12</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8" t="str">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01001</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K11" s="2">
         <v>2</v>
@@ -1173,71 +1179,75 @@
       <c r="P11" s="2">
         <v>7</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8" t="str">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01010</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="Q12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8" t="str">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01011</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1245,75 +1255,75 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8" t="str">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01100</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8" t="str">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01101</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1321,32 +1331,32 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8" t="str">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01110</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1354,32 +1364,32 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8" t="str">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01111</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="2">
         <v>1</v>
       </c>
@@ -1401,40 +1411,40 @@
       <c r="P17" s="2">
         <v>7</v>
       </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8" t="str">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="M18" s="2">
         <v>8</v>
@@ -1444,32 +1454,32 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8" t="str">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10001</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1477,32 +1487,32 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8" t="str">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10010</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1510,65 +1520,65 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8" t="str">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10011</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8" t="str">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10100</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1576,28 +1586,28 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8" t="str">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10101</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1605,28 +1615,28 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8" t="str">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10110</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1634,28 +1644,28 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8" t="str">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10111</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1663,71 +1673,71 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="8" t="str">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="4" t="s">
+      <c r="K26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8" t="str">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11001</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1735,32 +1745,32 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="8" t="str">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11010</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1768,32 +1778,32 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="8" t="str">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11011</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1801,32 +1811,32 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8" t="str">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11100</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1834,164 +1844,231 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
+      <c r="Q30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8" t="str">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11101</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="M31" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
+      <c r="Q31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="8" t="str">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11110</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="4" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8" t="str">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11111</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="167">
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="Q31:V31"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E31:F31"/>
@@ -2016,111 +2093,44 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="Q30:V30"/>
-    <mergeCell ref="Q31:V31"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="Q33:V33"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Minecraft-Computer-Operations.xlsx
+++ b/Minecraft-Computer-Operations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiha\OneDrive\Documents\GitHub\Binari-n-Rhesymegol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66152E7D-A744-4BD9-BC6F-560F751DC689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4100AB5-0B03-4F5C-84A9-8D10877C4287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
   </bookViews>
   <sheets>
     <sheet name="Operation Mapping" sheetId="1" r:id="rId1"/>
@@ -389,25 +389,25 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,30 +749,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4783DD8-DB99-4203-8706-5C5B54F85F4F}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="2" t="str">
         <f>DEC2BIN(A3,3)</f>
         <v>001</v>
@@ -801,34 +801,34 @@
         <f>DEC2BIN(A9,3)</f>
         <v>111</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="str">
+      <c r="B2" s="9"/>
+      <c r="C2" s="8" t="str">
         <f>DEC2BIN(A2,5)</f>
         <v>00000</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -836,32 +836,32 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="str">
+      <c r="B3" s="9"/>
+      <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C33" si="0">DEC2BIN(A3,5)</f>
         <v>00001</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -869,34 +869,34 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="str">
+      <c r="B4" s="9"/>
+      <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00010</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -904,34 +904,34 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="str">
+      <c r="B5" s="9"/>
+      <c r="C5" s="8" t="str">
         <f>DEC2BIN(A5,5)</f>
         <v>00011</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -939,34 +939,34 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="str">
+      <c r="B6" s="9"/>
+      <c r="C6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00100</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -974,100 +974,100 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="str">
+      <c r="B7" s="9"/>
+      <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00101</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="str">
+      <c r="B8" s="9"/>
+      <c r="C8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00110</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="str">
+      <c r="B9" s="9"/>
+      <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>00111</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1089,32 +1089,32 @@
       <c r="P9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="str">
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01000</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="str">
+      <c r="B11" s="9"/>
+      <c r="C11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01001</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="2" t="s">
         <v>71</v>
       </c>
@@ -1179,32 +1179,32 @@
       <c r="P11" s="2">
         <v>7</v>
       </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="str">
+      <c r="B12" s="9"/>
+      <c r="C12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01010</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="2" t="s">
         <v>85</v>
       </c>
@@ -1220,34 +1220,34 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6" t="str">
+      <c r="B13" s="9"/>
+      <c r="C13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01011</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1255,32 +1255,32 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="str">
+      <c r="B14" s="9"/>
+      <c r="C14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01100</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1298,32 +1298,32 @@
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="str">
+      <c r="B15" s="9"/>
+      <c r="C15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01101</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1331,32 +1331,32 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="str">
+      <c r="B16" s="9"/>
+      <c r="C16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01110</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1364,32 +1364,32 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="str">
+      <c r="B17" s="9"/>
+      <c r="C17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>01111</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="2">
         <v>1</v>
       </c>
@@ -1411,32 +1411,32 @@
       <c r="P17" s="2">
         <v>7</v>
       </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="str">
+      <c r="B18" s="9"/>
+      <c r="C18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6" t="str">
+      <c r="B19" s="9"/>
+      <c r="C19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10001</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1487,32 +1487,32 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6" t="str">
+      <c r="B20" s="9"/>
+      <c r="C20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10010</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1520,32 +1520,32 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6" t="str">
+      <c r="B21" s="9"/>
+      <c r="C21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10011</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="7"/>
+      <c r="G21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="2" t="s">
         <v>77</v>
       </c>
@@ -1557,28 +1557,28 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="str">
+      <c r="B22" s="9"/>
+      <c r="C22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10100</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1586,28 +1586,28 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6" t="str">
+      <c r="B23" s="9"/>
+      <c r="C23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10101</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1615,28 +1615,28 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6" t="str">
+      <c r="B24" s="9"/>
+      <c r="C24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10110</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1644,28 +1644,28 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6" t="str">
+      <c r="B25" s="9"/>
+      <c r="C25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>10111</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1673,32 +1673,32 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6" t="str">
+      <c r="B26" s="9"/>
+      <c r="C26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="7"/>
+      <c r="G26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
       <c r="J26" s="2" t="s">
         <v>81</v>
       </c>
@@ -1712,32 +1712,32 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6" t="str">
+      <c r="B27" s="9"/>
+      <c r="C27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11001</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3" t="s">
+      <c r="F27" s="7"/>
+      <c r="G27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1745,32 +1745,32 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6" t="str">
+      <c r="B28" s="9"/>
+      <c r="C28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11010</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="7"/>
+      <c r="G28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1778,32 +1778,32 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6" t="str">
+      <c r="B29" s="9"/>
+      <c r="C29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11011</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1811,32 +1811,32 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6" t="str">
+      <c r="B30" s="9"/>
+      <c r="C30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11100</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1844,34 +1844,34 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="7" t="s">
+      <c r="Q30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6" t="str">
+      <c r="B31" s="9"/>
+      <c r="C31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11101</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="2" t="s">
         <v>33</v>
       </c>
@@ -1887,83 +1887,226 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="7" t="s">
+      <c r="Q31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6" t="str">
+      <c r="B32" s="9"/>
+      <c r="C32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11110</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="8"/>
+      <c r="E32" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6" t="str">
+      <c r="B33" s="9"/>
+      <c r="C33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>11111</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="8"/>
+      <c r="E33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3" t="s">
+      <c r="F33" s="7"/>
+      <c r="G33" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="167">
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="J33:P33"/>
     <mergeCell ref="G7:I7"/>
@@ -1988,149 +2131,6 @@
     <mergeCell ref="Q28:V28"/>
     <mergeCell ref="Q12:V12"/>
     <mergeCell ref="Q13:V13"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Minecraft-Computer-Operations.xlsx
+++ b/Minecraft-Computer-Operations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiha\OneDrive\Documents\GitHub\Binari-n-Rhesymegol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4100AB5-0B03-4F5C-84A9-8D10877C4287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9CFF3F-7BFB-4FFB-9CB3-EFA223A33337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7613BB6-1CB0-4729-A24E-D1ACFF1E0467}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
   <si>
     <t>OP CODE</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>H-H</t>
+  </si>
+  <si>
+    <t>CLS ALU</t>
   </si>
 </sst>
 </file>
@@ -389,25 +392,25 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,30 +752,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4783DD8-DB99-4203-8706-5C5B54F85F4F}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="2" t="str">
         <f>DEC2BIN(A3,3)</f>
         <v>001</v>
@@ -801,34 +804,34 @@
         <f>DEC2BIN(A9,3)</f>
         <v>111</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="8" t="str">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="str">
         <f>DEC2BIN(A2,5)</f>
         <v>00000</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -836,32 +839,32 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8" t="str">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C33" si="0">DEC2BIN(A3,5)</f>
         <v>00001</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -869,34 +872,34 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8" t="str">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00010</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -904,34 +907,34 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8" t="str">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="str">
         <f>DEC2BIN(A5,5)</f>
         <v>00011</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -939,34 +942,34 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="str">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00100</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -974,100 +977,100 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="str">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00101</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8" t="str">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00110</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="str">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>00111</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1089,32 +1092,32 @@
       <c r="P9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="str">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01000</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1130,34 +1133,36 @@
       <c r="N10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8" t="str">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01001</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="2" t="s">
         <v>71</v>
       </c>
@@ -1179,32 +1184,32 @@
       <c r="P11" s="2">
         <v>7</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8" t="str">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01010</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="2" t="s">
         <v>85</v>
       </c>
@@ -1220,34 +1225,34 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8" t="str">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01011</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1255,32 +1260,32 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8" t="str">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01100</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1298,32 +1303,32 @@
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8" t="str">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01101</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1331,32 +1336,32 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8" t="str">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01110</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1364,32 +1369,32 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8" t="str">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>01111</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="2">
         <v>1</v>
       </c>
@@ -1411,32 +1416,32 @@
       <c r="P17" s="2">
         <v>7</v>
       </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8" t="str">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1454,32 +1459,32 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8" t="str">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10001</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1487,32 +1492,32 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8" t="str">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10010</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1520,32 +1525,32 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8" t="str">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10011</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="2" t="s">
         <v>77</v>
       </c>
@@ -1557,28 +1562,28 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8" t="str">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10100</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1586,28 +1591,28 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8" t="str">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10101</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1615,28 +1620,28 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8" t="str">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10110</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1644,28 +1649,28 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8" t="str">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>10111</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1673,32 +1678,32 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="8" t="str">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="4" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="2" t="s">
         <v>81</v>
       </c>
@@ -1712,32 +1717,32 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8" t="str">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11001</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="4" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1745,32 +1750,32 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="8" t="str">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11010</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="4" t="s">
+      <c r="F28" s="4"/>
+      <c r="G28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1778,32 +1783,32 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="8" t="str">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11011</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="4" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1811,32 +1816,32 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="8" t="str">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11100</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="4"/>
+      <c r="G30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1844,34 +1849,34 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8" t="str">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11101</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="4" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="2" t="s">
         <v>33</v>
       </c>
@@ -1887,121 +1892,188 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="8" t="str">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11110</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="4" t="s">
+      <c r="F32" s="4"/>
+      <c r="G32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="8" t="str">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>11111</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="4" t="s">
+      <c r="F33" s="4"/>
+      <c r="G33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="167">
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="Q31:V31"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="Q12:V12"/>
+    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="Q10:V10"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="Q14:V14"/>
+    <mergeCell ref="Q15:V15"/>
+    <mergeCell ref="Q16:V16"/>
+    <mergeCell ref="Q17:V17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q5:V5"/>
+    <mergeCell ref="Q6:V6"/>
+    <mergeCell ref="Q7:V7"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E31:F31"/>
@@ -2026,111 +2098,44 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="Q14:V14"/>
-    <mergeCell ref="Q15:V15"/>
-    <mergeCell ref="Q16:V16"/>
-    <mergeCell ref="Q17:V17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="Q6:V6"/>
-    <mergeCell ref="Q7:V7"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="Q9:V9"/>
-    <mergeCell ref="Q10:V10"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="Q30:V30"/>
-    <mergeCell ref="Q31:V31"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="Q33:V33"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="Q13:V13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
